--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Loubière/Auguste_Loubière.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Loubière/Auguste_Loubière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Loubi%C3%A8re</t>
+          <t>Auguste_Loubière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Loubière est un mycologue français, né le 6 mai 1888 à Espalion (Aveyron) et mort le 22 décembre 1963 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Loubi%C3%A8re</t>
+          <t>Auguste_Loubière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études au lycée de Rodez, il prépare de nombreux certificats de licence à l'université des sciences de Toulouse, puis à Paris, qui lui donnent une culture de base très dense qui devait le qualifier à des recherches délicates dans des domaines difficiles d'accès.
 Remarqué par Louis Matruchot qui lui conseille de renoncer à une carrière de professeur au lycée Ampère, à Lyon, pour se consacrer entièrement à la recherche. Boursier de doctorat en 1922, il entre au Laboratoire de Cryptogamie du Muséum, où ses maîtres Louis Mangin et Narcisse Patouillard l'orienteront vers les Mucédinées caséicoles.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Loubi%C3%A8re</t>
+          <t>Auguste_Loubière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations sur un arthrosporé (1957, article)
 Considérations sur la morphologie et sur les affinités d'un Blastosporé (1956, article)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auguste_Loubi%C3%A8re</t>
+          <t>Auguste_Loubière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Roger Heim " Auguste Loubière ", Archives du Muséum national d'Histoire Naturelle, Paris, 1965, Éditions du Muséum.</t>
         </is>
